--- a/CoreRulebook/Data/Archetypes/Warrior.xlsx
+++ b/CoreRulebook/Data/Archetypes/Warrior.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B701F86-553A-4756-9227-A57EAEAA62CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD65018C-A1A3-407D-BEFE-BECDB9810926}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>Level</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Equipment:</t>
   </si>
   <si>
-    <t xml:space="preserve">A Wand, a Fighter’s pack including a weapon of your choice, and a set of Warrior Robes.   </t>
-  </si>
-  <si>
     <t>Memorised Spells</t>
   </si>
   <si>
@@ -173,7 +170,13 @@
     <t>ExtraList2</t>
   </si>
   <si>
-    <t>{\it Signii} Available</t>
+    <t xml:space="preserve">A Wand, a Fighter\apos{}s pack including a weapon of your choice, and a set of Warrior Robes.   </t>
+  </si>
+  <si>
+    <t>Stratagems Known</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="G1"/>
       <c r="H1" s="4" t="s">
@@ -603,8 +606,8 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
-        <v>2</v>
+      <c r="E2" t="s">
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>7</v>
@@ -627,8 +630,8 @@
       <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -697,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>17</v>
@@ -742,7 +745,7 @@
         <v>13</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
@@ -766,7 +769,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>26</v>
@@ -790,13 +793,13 @@
         <v>28</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -811,13 +814,13 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -829,16 +832,16 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
       <c r="E12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>46</v>
@@ -853,13 +856,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -871,13 +874,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -889,13 +892,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
       <c r="E15">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -907,10 +910,10 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -922,13 +925,13 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -940,10 +943,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -955,13 +958,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
         <v>39</v>
       </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
       <c r="E19">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -973,10 +976,10 @@
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -988,13 +991,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Archetypes/Warrior.xlsx
+++ b/CoreRulebook/Data/Archetypes/Warrior.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t xml:space="preserve">Level</t>
   </si>
@@ -70,6 +70,9 @@
     <t xml:space="preserve">FP:</t>
   </si>
   <si>
+    <t xml:space="preserve">Novice</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paradigm Feature II</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t xml:space="preserve">All Armour and Shields</t>
   </si>
   <si>
-    <t xml:space="preserve">Novice</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tools:</t>
   </si>
   <si>
@@ -103,6 +103,9 @@
     <t xml:space="preserve">All Weapons</t>
   </si>
   <si>
+    <t xml:space="preserve">Adept</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paradigm Feature III</t>
   </si>
   <si>
@@ -121,13 +124,13 @@
     <t xml:space="preserve">A Wand, a Fighter\apos{}s pack including a weapon of your choice, and a set of Warrior Robes.   </t>
   </si>
   <si>
-    <t xml:space="preserve">Adept</t>
-  </si>
-  <si>
     <t xml:space="preserve">Memorised Spells</t>
   </si>
   <si>
     <t xml:space="preserve">Any three from the basic spells table. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expert</t>
   </si>
   <si>
     <t xml:space="preserve">Firm Grip</t>
@@ -291,7 +294,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -411,19 +414,19 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>3</v>
@@ -456,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>22</v>
@@ -480,7 +483,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>4</v>
@@ -501,19 +504,19 @@
         <v>4</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>4</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="46.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -525,19 +528,19 @@
         <v>4</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -549,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>5</v>
@@ -570,19 +573,19 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,13 +597,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -612,10 +615,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>5</v>
@@ -630,10 +633,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>6</v>
@@ -648,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>6</v>
@@ -663,7 +666,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>6</v>
@@ -678,10 +681,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>6</v>
@@ -696,10 +699,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>8</v>
@@ -714,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>8</v>
@@ -729,10 +732,10 @@
         <v>7</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>8</v>
